--- a/ReportTestFramework.xlsx
+++ b/ReportTestFramework.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="17775" windowHeight="11610" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="17775" windowHeight="11610" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JUnitTest" sheetId="1" r:id="rId1"/>
     <sheet name="PAX-EXAM" sheetId="2" r:id="rId2"/>
     <sheet name="Curl" sheetId="3" r:id="rId3"/>
+    <sheet name="Geb" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Junit là 1 framework sử dụng cho việc test trong java</t>
   </si>
@@ -375,6 +376,108 @@
   </si>
   <si>
     <t>sudo apt-get install curl</t>
+  </si>
+  <si>
+    <t>Geb</t>
+  </si>
+  <si>
+    <t>Geb là 1 tool hỗ trợ lập trình viên xây dựng ứng dụng tự động thao tác với web browser và web content.</t>
+  </si>
+  <si>
+    <t>Geb sử dụng ngôn ngữ groovy</t>
+  </si>
+  <si>
+    <t>Với mục đích test, Geb sử dụng các test framework như Spock, Junit,… cùng với việc thao tác web sẽ giúp lập trình viên xây dựng ứng dụng test tự động webpage</t>
+  </si>
+  <si>
+    <t>Demo dưới đây sẽ cho thấy việc sử dụng Geb + Spock</t>
+  </si>
+  <si>
+    <t>Demo sử dụng Geb + spock</t>
+  </si>
+  <si>
+    <t>Tạo 1 maven project</t>
+  </si>
+  <si>
+    <t>Add dependency sử dụng Geb và spock</t>
+  </si>
+  <si>
+    <t>&lt;dependencies&gt;
+    &lt;dependency&gt;
+      &lt;groupId&gt;org.codehaus.groovy&lt;/groupId&gt;
+      &lt;artifactId&gt;groovy-all&lt;/artifactId&gt;
+      &lt;version&gt;1.8.6&lt;/version&gt;
+    &lt;/dependency&gt;
+    &lt;dependency&gt;
+      &lt;groupId&gt;junit&lt;/groupId&gt;
+      &lt;artifactId&gt;junit&lt;/artifactId&gt;
+      &lt;version&gt;4.8.1&lt;/version&gt;
+      &lt;scope&gt;test&lt;/scope&gt;
+    &lt;/dependency&gt;
+    &lt;dependency&gt;
+      &lt;groupId&gt;org.spockframework&lt;/groupId&gt;
+      &lt;artifactId&gt;spock-core&lt;/artifactId&gt;
+      &lt;version&gt;0.7-groovy-1.8&lt;/version&gt;
+      &lt;scope&gt;test&lt;/scope&gt;
+      &lt;exclusions&gt;
+        &lt;exclusion&gt;
+          &lt;groupId&gt;org.codehaus.groovy&lt;/groupId&gt;
+          &lt;artifactId&gt;groovy-all&lt;/artifactId&gt;
+        &lt;/exclusion&gt;
+      &lt;/exclusions&gt;
+    &lt;/dependency&gt;
+    &lt;dependency&gt;
+      &lt;groupId&gt;org.gebish&lt;/groupId&gt;
+      &lt;artifactId&gt;geb-spock&lt;/artifactId&gt;
+      &lt;version&gt;${gebVersion}&lt;/version&gt;
+      &lt;scope&gt;test&lt;/scope&gt;
+    &lt;/dependency&gt;
+    &lt;dependency&gt;
+      &lt;groupId&gt;org.seleniumhq.selenium&lt;/groupId&gt;
+      &lt;artifactId&gt;selenium-firefox-driver&lt;/artifactId&gt;
+      &lt;version&gt;${seleniumVersion}&lt;/version&gt;
+      &lt;scope&gt;test&lt;/scope&gt;
+    &lt;/dependency&gt;
+    &lt;dependency&gt;
+      &lt;groupId&gt;org.seleniumhq.selenium&lt;/groupId&gt;
+      &lt;artifactId&gt;selenium-chrome-driver&lt;/artifactId&gt;
+      &lt;version&gt;${seleniumVersion}&lt;/version&gt;
+      &lt;scope&gt;test&lt;/scope&gt;
+    &lt;/dependency&gt;
+    &lt;dependency&gt;
+      &lt;groupId&gt;org.seleniumhq.selenium&lt;/groupId&gt;
+      &lt;artifactId&gt;selenium-htmlunit-driver&lt;/artifactId&gt;
+      &lt;version&gt;${seleniumVersion}&lt;/version&gt;
+      &lt;scope&gt;test&lt;/scope&gt;
+    &lt;/dependency&gt;
+  &lt;/dependencies&gt;</t>
+  </si>
+  <si>
+    <t>Các testcase xây dựng cần extends các class implement interface Specification của Spock</t>
+  </si>
+  <si>
+    <t>Dấu ấn của spock là các block when, then,…</t>
+  </si>
+  <si>
+    <t>Geb sử dụng các command đơn giản nhưng mạnh mẽ để thao tác với webpage, webcontent, DOM elements, js, jquery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi tiết tham khảo </t>
+  </si>
+  <si>
+    <t>geb-example-maven</t>
+  </si>
+  <si>
+    <t>Các link hữu dụng</t>
+  </si>
+  <si>
+    <t>http://www.gebish.org/manual/0.7.2/index.html</t>
+  </si>
+  <si>
+    <t>https://code.google.com/p/spock/w/list</t>
+  </si>
+  <si>
+    <t>http://www.gebish.org/manual/0.7.2/api/overview-summary.html</t>
   </si>
 </sst>
 </file>
@@ -453,16 +556,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -756,7 +860,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -771,64 +875,64 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -838,7 +942,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -846,7 +950,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -854,7 +958,7 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -867,7 +971,7 @@
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -896,7 +1000,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -931,46 +1035,46 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
@@ -978,607 +1082,607 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
     </row>
     <row r="41" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
     </row>
     <row r="42" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
     </row>
     <row r="45" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
     </row>
     <row r="47" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
     </row>
     <row r="48" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
     </row>
     <row r="49" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
     </row>
     <row r="50" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
     </row>
     <row r="51" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
     </row>
     <row r="52" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="55" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
     </row>
     <row r="56" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
     </row>
     <row r="57" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
     </row>
     <row r="58" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
     </row>
     <row r="59" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
     </row>
     <row r="60" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
     </row>
     <row r="61" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
     </row>
     <row r="62" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
     </row>
     <row r="63" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
     </row>
     <row r="64" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="69" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
     </row>
     <row r="77" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
     </row>
     <row r="78" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
     </row>
     <row r="79" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
     </row>
     <row r="80" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
     </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1588,7 +1692,7 @@
       </c>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1616,7 +1720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1626,7 +1730,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1648,4 +1752,779 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+    </row>
+    <row r="45" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+    </row>
+    <row r="46" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+    </row>
+    <row r="47" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+    </row>
+    <row r="48" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+    </row>
+    <row r="57" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+    </row>
+    <row r="58" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+    </row>
+    <row r="59" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+    </row>
+    <row r="61" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+    </row>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+    </row>
+    <row r="63" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+    </row>
+    <row r="64" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C67" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D68" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D69" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D70" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D71" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D15:N65"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D71" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>